--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2E93453EBF6A9355/Bureau/apprentissage/data-scientist-to-be/revues-documentaire/data analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1077" documentId="8_{061ED600-5D59-4033-93D1-D005ED65A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C17ECDB-9033-43F2-A31B-99412F1BCD3E}"/>
+  <xr:revisionPtr revIDLastSave="1078" documentId="8_{061ED600-5D59-4033-93D1-D005ED65A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A94B56B-5055-4E00-9834-082A6CC44F6A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31548965-0115-43B9-9855-26B0769394BE}"/>
   </bookViews>
   <sheets>
     <sheet name="bar chart" sheetId="1" r:id="rId1"/>
     <sheet name="line graph" sheetId="2" r:id="rId2"/>
-    <sheet name="tell story with graph colors" sheetId="3" r:id="rId3"/>
+    <sheet name="tell story with graph colors" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="slopegraph" sheetId="4" r:id="rId4"/>
     <sheet name="bars" sheetId="5" r:id="rId5"/>
     <sheet name="Storytelling with Data" sheetId="6" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -461,19 +461,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -484,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4048,7 +4048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{738B2595-BD10-4CA4-869F-787AC3B9E5A5}" type="CELLRANGE">
+                    <a:fld id="{8F0289C0-DDFA-4630-BCDA-8494342EF182}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -11524,6 +11524,10 @@
 </c:userShapes>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CD38744-2412-4F48-8C54-27A2E16ED71E}" name="Tableau1" displayName="Tableau1" ref="A2:F8" totalsRowShown="0">
   <autoFilter ref="A2:F8" xr:uid="{9CD38744-2412-4F48-8C54-27A2E16ED71E}">
@@ -11961,7 +11965,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12598,7 +12602,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12608,28 +12612,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -12638,12 +12642,12 @@
       <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -12656,10 +12660,10 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -12814,12 +12818,12 @@
       <c r="B23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -12830,22 +12834,22 @@
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="19"/>
